--- a/Python/応用/excel×Python/excels/masuda.xlsx
+++ b/Python/応用/excel×Python/excels/masuda.xlsx
@@ -127,15 +127,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -376,7 +376,7 @@
         <v>44930</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -502,7 +502,7 @@
         <v>44944</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3"/>
     </row>
